--- a/December/All Details/31.12.19/MC Bank Statement Dec'19.xlsx
+++ b/December/All Details/31.12.19/MC Bank Statement Dec'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\December\All Details\31.12.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2C13C-8208-499B-A3CB-ACEED1F8C638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C781A363-D540-495B-9E1C-8560E0A8E473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3298,7 +3298,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3518,7 +3518,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="117">
-        <v>451000</v>
+        <v>436000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="103"/>
@@ -3565,7 +3565,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1477806</v>
+        <v>1478210</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="103"/>
@@ -3605,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>49251</v>
+        <v>49447</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="113" t="s">
@@ -3659,7 +3659,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="116">
-        <v>-603006.70500000101</v>
+        <v>-588606.70500000101</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="103"/>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>123846.85</v>
+        <v>123650.85</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="113"/>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7023846.8499999996</v>
+        <v>7023650.8499999996</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7023846.8499999996</v>
+        <v>7023650.8499999996</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="90">
